--- a/Veille/FileExample/pivottable_aspose.xlsx
+++ b/Veille/FileExample/pivottable_aspose.xlsx
@@ -35,82 +35,82 @@
     <t>Salaries</t>
   </si>
   <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Hans Meier 1</t>
+  </si>
+  <si>
+    <t>21-30</t>
+  </si>
+  <si>
     <t>Finance</t>
   </si>
   <si>
-    <t>Fred Nurk 1</t>
+    <t>Ivan Horvat 2</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Fred Nurk 3</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>Hans Meier 4</t>
   </si>
   <si>
     <t>over 30</t>
   </si>
   <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Fred Nurk 2</t>
-  </si>
-  <si>
-    <t>1-10</t>
+    <t>Hans Meier 5</t>
   </si>
   <si>
     <t>Purchasing</t>
   </si>
   <si>
-    <t>John Doe 3</t>
-  </si>
-  <si>
-    <t>John Doe 4</t>
-  </si>
-  <si>
-    <t>21-30</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>John Doe 5</t>
-  </si>
-  <si>
-    <t>John Doe 6</t>
+    <t>Fred Nurk 6</t>
+  </si>
+  <si>
+    <t>Fred Nurk 7</t>
   </si>
   <si>
     <t>11-20</t>
   </si>
   <si>
-    <t>Hans Meier 7</t>
-  </si>
-  <si>
-    <t>Hans Meier 8</t>
+    <t>Fred Nurk 8</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 9</t>
+  </si>
+  <si>
+    <t>John Doe 10</t>
+  </si>
+  <si>
+    <t>John Doe 11</t>
+  </si>
+  <si>
+    <t>Hans Meier 12</t>
+  </si>
+  <si>
+    <t>Hans Meier 13</t>
+  </si>
+  <si>
+    <t>Fred Nurk 14</t>
+  </si>
+  <si>
+    <t>John Doe 15</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 16</t>
   </si>
   <si>
     <t>Marketing</t>
   </si>
   <si>
-    <t>Hans Meier 9</t>
-  </si>
-  <si>
-    <t>Hans Meier 10</t>
-  </si>
-  <si>
-    <t>Hans Meier 11</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 12</t>
-  </si>
-  <si>
-    <t>John Doe 13</t>
-  </si>
-  <si>
-    <t>Fred Nurk 14</t>
-  </si>
-  <si>
-    <t>Fred Nurk 15</t>
-  </si>
-  <si>
-    <t>Hans Meier 16</t>
-  </si>
-  <si>
-    <t>John Doe 17</t>
+    <t>Fred Nurk 17</t>
   </si>
   <si>
     <t>Ivan Horvat 18</t>
@@ -122,10 +122,10 @@
     <t>Fred Nurk 20</t>
   </si>
   <si>
-    <t>Fred Nurk 21</t>
-  </si>
-  <si>
-    <t>Fred Nurk 22</t>
+    <t>Hans Meier 21</t>
+  </si>
+  <si>
+    <t>Hans Meier 22</t>
   </si>
   <si>
     <t>John Doe 23</t>
@@ -134,10 +134,10 @@
     <t>John Doe 24</t>
   </si>
   <si>
-    <t>Hans Meier 25</t>
-  </si>
-  <si>
-    <t>Hans Meier 26</t>
+    <t>Ivan Horvat 25</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 26</t>
   </si>
   <si>
     <t>Ivan Horvat 27</t>
@@ -149,49 +149,49 @@
     <t>John Doe 29</t>
   </si>
   <si>
-    <t>Fred Nurk 30</t>
-  </si>
-  <si>
-    <t>Fred Nurk 31</t>
-  </si>
-  <si>
-    <t>Fred Nurk 32</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 33</t>
+    <t>John Doe 30</t>
+  </si>
+  <si>
+    <t>Hans Meier 31</t>
+  </si>
+  <si>
+    <t>Hans Meier 32</t>
+  </si>
+  <si>
+    <t>Fred Nurk 33</t>
   </si>
   <si>
     <t>Hans Meier 34</t>
   </si>
   <si>
-    <t>John Doe 35</t>
-  </si>
-  <si>
-    <t>Fred Nurk 36</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 37</t>
-  </si>
-  <si>
-    <t>Hans Meier 38</t>
+    <t>Ivan Horvat 35</t>
+  </si>
+  <si>
+    <t>John Doe 36</t>
+  </si>
+  <si>
+    <t>Fred Nurk 37</t>
+  </si>
+  <si>
+    <t>Fred Nurk 38</t>
   </si>
   <si>
     <t>John Doe 39</t>
   </si>
   <si>
-    <t>Fred Nurk 40</t>
-  </si>
-  <si>
-    <t>John Doe 41</t>
-  </si>
-  <si>
-    <t>Fred Nurk 42</t>
-  </si>
-  <si>
-    <t>Fred Nurk 43</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 44</t>
+    <t>John Doe 40</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 41</t>
+  </si>
+  <si>
+    <t>John Doe 42</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 43</t>
+  </si>
+  <si>
+    <t>Fred Nurk 44</t>
   </si>
   <si>
     <t>Ivan Horvat 45</t>
@@ -203,22 +203,22 @@
     <t>Fred Nurk 47</t>
   </si>
   <si>
-    <t>John Doe 48</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 49</t>
-  </si>
-  <si>
-    <t>John Doe 50</t>
-  </si>
-  <si>
-    <t>John Doe 51</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 52</t>
-  </si>
-  <si>
-    <t>John Doe 53</t>
+    <t>Hans Meier 48</t>
+  </si>
+  <si>
+    <t>John Doe 49</t>
+  </si>
+  <si>
+    <t>Fred Nurk 50</t>
+  </si>
+  <si>
+    <t>Fred Nurk 51</t>
+  </si>
+  <si>
+    <t>Fred Nurk 52</t>
+  </si>
+  <si>
+    <t>Hans Meier 53</t>
   </si>
   <si>
     <t>Ivan Horvat 54</t>
@@ -230,7 +230,7 @@
     <t>Hans Meier 56</t>
   </si>
   <si>
-    <t>Ivan Horvat 57</t>
+    <t>Fred Nurk 57</t>
   </si>
   <si>
     <t>Ivan Horvat 58</t>
@@ -239,46 +239,46 @@
     <t>Fred Nurk 59</t>
   </si>
   <si>
-    <t>Fred Nurk 60</t>
+    <t>Hans Meier 60</t>
   </si>
   <si>
     <t>Hans Meier 61</t>
   </si>
   <si>
-    <t>Hans Meier 62</t>
-  </si>
-  <si>
-    <t>Hans Meier 63</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 64</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 65</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 66</t>
-  </si>
-  <si>
-    <t>Hans Meier 67</t>
-  </si>
-  <si>
-    <t>John Doe 68</t>
-  </si>
-  <si>
-    <t>Hans Meier 69</t>
-  </si>
-  <si>
-    <t>John Doe 70</t>
-  </si>
-  <si>
-    <t>John Doe 71</t>
+    <t>John Doe 62</t>
+  </si>
+  <si>
+    <t>Fred Nurk 63</t>
+  </si>
+  <si>
+    <t>John Doe 64</t>
+  </si>
+  <si>
+    <t>Fred Nurk 65</t>
+  </si>
+  <si>
+    <t>John Doe 66</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 67</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 68</t>
+  </si>
+  <si>
+    <t>Fred Nurk 69</t>
+  </si>
+  <si>
+    <t>Hans Meier 70</t>
+  </si>
+  <si>
+    <t>Fred Nurk 71</t>
   </si>
   <si>
     <t>Hans Meier 72</t>
   </si>
   <si>
-    <t>Hans Meier 73</t>
+    <t>Ivan Horvat 73</t>
   </si>
   <si>
     <t>John Doe 74</t>
@@ -287,61 +287,61 @@
     <t>Hans Meier 75</t>
   </si>
   <si>
-    <t>Ivan Horvat 76</t>
-  </si>
-  <si>
-    <t>Fred Nurk 77</t>
-  </si>
-  <si>
-    <t>Hans Meier 78</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 79</t>
+    <t>John Doe 76</t>
+  </si>
+  <si>
+    <t>John Doe 77</t>
+  </si>
+  <si>
+    <t>Fred Nurk 78</t>
+  </si>
+  <si>
+    <t>Hans Meier 79</t>
   </si>
   <si>
     <t>Fred Nurk 80</t>
   </si>
   <si>
-    <t>Hans Meier 81</t>
+    <t>Fred Nurk 81</t>
   </si>
   <si>
     <t>Ivan Horvat 82</t>
   </si>
   <si>
-    <t>Hans Meier 83</t>
-  </si>
-  <si>
-    <t>Fred Nurk 84</t>
+    <t>Ivan Horvat 83</t>
+  </si>
+  <si>
+    <t>John Doe 84</t>
   </si>
   <si>
     <t>John Doe 85</t>
   </si>
   <si>
-    <t>Hans Meier 86</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 87</t>
-  </si>
-  <si>
-    <t>John Doe 88</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 89</t>
-  </si>
-  <si>
-    <t>John Doe 90</t>
-  </si>
-  <si>
-    <t>Hans Meier 91</t>
-  </si>
-  <si>
-    <t>Hans Meier 92</t>
-  </si>
-  <si>
-    <t>John Doe 93</t>
-  </si>
-  <si>
-    <t>John Doe 94</t>
+    <t>Fred Nurk 86</t>
+  </si>
+  <si>
+    <t>Fred Nurk 87</t>
+  </si>
+  <si>
+    <t>Fred Nurk 88</t>
+  </si>
+  <si>
+    <t>Hans Meier 89</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 90</t>
+  </si>
+  <si>
+    <t>Fred Nurk 91</t>
+  </si>
+  <si>
+    <t>John Doe 92</t>
+  </si>
+  <si>
+    <t>Hans Meier 93</t>
+  </si>
+  <si>
+    <t>Hans Meier 94</t>
   </si>
   <si>
     <t>Fred Nurk 95</t>
@@ -350,7 +350,7 @@
     <t>Ivan Horvat 96</t>
   </si>
   <si>
-    <t>Hans Meier 97</t>
+    <t>John Doe 97</t>
   </si>
   <si>
     <t>Ivan Horvat 98</t>
@@ -529,112 +529,112 @@
   <cacheFields count="4">
     <cacheField name="Departments">
       <sharedItems count="5">
+        <s v="Planning"/>
         <s v="Finance"/>
         <s v="Legal"/>
         <s v="Purchasing"/>
-        <s v="Planning"/>
         <s v="Marketing"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Names">
       <sharedItems count="100">
-        <s v="Fred Nurk 1"/>
-        <s v="Fred Nurk 2"/>
-        <s v="John Doe 3"/>
-        <s v="John Doe 4"/>
-        <s v="John Doe 5"/>
-        <s v="John Doe 6"/>
-        <s v="Hans Meier 7"/>
-        <s v="Hans Meier 8"/>
-        <s v="Hans Meier 9"/>
-        <s v="Hans Meier 10"/>
-        <s v="Hans Meier 11"/>
-        <s v="Ivan Horvat 12"/>
-        <s v="John Doe 13"/>
+        <s v="Hans Meier 1"/>
+        <s v="Ivan Horvat 2"/>
+        <s v="Fred Nurk 3"/>
+        <s v="Hans Meier 4"/>
+        <s v="Hans Meier 5"/>
+        <s v="Fred Nurk 6"/>
+        <s v="Fred Nurk 7"/>
+        <s v="Fred Nurk 8"/>
+        <s v="Ivan Horvat 9"/>
+        <s v="John Doe 10"/>
+        <s v="John Doe 11"/>
+        <s v="Hans Meier 12"/>
+        <s v="Hans Meier 13"/>
         <s v="Fred Nurk 14"/>
-        <s v="Fred Nurk 15"/>
-        <s v="Hans Meier 16"/>
-        <s v="John Doe 17"/>
+        <s v="John Doe 15"/>
+        <s v="Ivan Horvat 16"/>
+        <s v="Fred Nurk 17"/>
         <s v="Ivan Horvat 18"/>
         <s v="John Doe 19"/>
         <s v="Fred Nurk 20"/>
-        <s v="Fred Nurk 21"/>
-        <s v="Fred Nurk 22"/>
+        <s v="Hans Meier 21"/>
+        <s v="Hans Meier 22"/>
         <s v="John Doe 23"/>
         <s v="John Doe 24"/>
-        <s v="Hans Meier 25"/>
-        <s v="Hans Meier 26"/>
+        <s v="Ivan Horvat 25"/>
+        <s v="Ivan Horvat 26"/>
         <s v="Ivan Horvat 27"/>
         <s v="Hans Meier 28"/>
         <s v="John Doe 29"/>
-        <s v="Fred Nurk 30"/>
-        <s v="Fred Nurk 31"/>
-        <s v="Fred Nurk 32"/>
-        <s v="Ivan Horvat 33"/>
+        <s v="John Doe 30"/>
+        <s v="Hans Meier 31"/>
+        <s v="Hans Meier 32"/>
+        <s v="Fred Nurk 33"/>
         <s v="Hans Meier 34"/>
-        <s v="John Doe 35"/>
-        <s v="Fred Nurk 36"/>
-        <s v="Ivan Horvat 37"/>
-        <s v="Hans Meier 38"/>
+        <s v="Ivan Horvat 35"/>
+        <s v="John Doe 36"/>
+        <s v="Fred Nurk 37"/>
+        <s v="Fred Nurk 38"/>
         <s v="John Doe 39"/>
-        <s v="Fred Nurk 40"/>
-        <s v="John Doe 41"/>
-        <s v="Fred Nurk 42"/>
-        <s v="Fred Nurk 43"/>
-        <s v="Ivan Horvat 44"/>
+        <s v="John Doe 40"/>
+        <s v="Ivan Horvat 41"/>
+        <s v="John Doe 42"/>
+        <s v="Ivan Horvat 43"/>
+        <s v="Fred Nurk 44"/>
         <s v="Ivan Horvat 45"/>
         <s v="Ivan Horvat 46"/>
         <s v="Fred Nurk 47"/>
-        <s v="John Doe 48"/>
-        <s v="Ivan Horvat 49"/>
-        <s v="John Doe 50"/>
-        <s v="John Doe 51"/>
-        <s v="Ivan Horvat 52"/>
-        <s v="John Doe 53"/>
+        <s v="Hans Meier 48"/>
+        <s v="John Doe 49"/>
+        <s v="Fred Nurk 50"/>
+        <s v="Fred Nurk 51"/>
+        <s v="Fred Nurk 52"/>
+        <s v="Hans Meier 53"/>
         <s v="Ivan Horvat 54"/>
         <s v="John Doe 55"/>
         <s v="Hans Meier 56"/>
-        <s v="Ivan Horvat 57"/>
+        <s v="Fred Nurk 57"/>
         <s v="Ivan Horvat 58"/>
         <s v="Fred Nurk 59"/>
-        <s v="Fred Nurk 60"/>
+        <s v="Hans Meier 60"/>
         <s v="Hans Meier 61"/>
-        <s v="Hans Meier 62"/>
-        <s v="Hans Meier 63"/>
-        <s v="Ivan Horvat 64"/>
-        <s v="Ivan Horvat 65"/>
-        <s v="Ivan Horvat 66"/>
-        <s v="Hans Meier 67"/>
-        <s v="John Doe 68"/>
-        <s v="Hans Meier 69"/>
-        <s v="John Doe 70"/>
-        <s v="John Doe 71"/>
+        <s v="John Doe 62"/>
+        <s v="Fred Nurk 63"/>
+        <s v="John Doe 64"/>
+        <s v="Fred Nurk 65"/>
+        <s v="John Doe 66"/>
+        <s v="Ivan Horvat 67"/>
+        <s v="Ivan Horvat 68"/>
+        <s v="Fred Nurk 69"/>
+        <s v="Hans Meier 70"/>
+        <s v="Fred Nurk 71"/>
         <s v="Hans Meier 72"/>
-        <s v="Hans Meier 73"/>
+        <s v="Ivan Horvat 73"/>
         <s v="John Doe 74"/>
         <s v="Hans Meier 75"/>
-        <s v="Ivan Horvat 76"/>
-        <s v="Fred Nurk 77"/>
-        <s v="Hans Meier 78"/>
-        <s v="Ivan Horvat 79"/>
+        <s v="John Doe 76"/>
+        <s v="John Doe 77"/>
+        <s v="Fred Nurk 78"/>
+        <s v="Hans Meier 79"/>
         <s v="Fred Nurk 80"/>
-        <s v="Hans Meier 81"/>
+        <s v="Fred Nurk 81"/>
         <s v="Ivan Horvat 82"/>
-        <s v="Hans Meier 83"/>
-        <s v="Fred Nurk 84"/>
+        <s v="Ivan Horvat 83"/>
+        <s v="John Doe 84"/>
         <s v="John Doe 85"/>
-        <s v="Hans Meier 86"/>
-        <s v="Ivan Horvat 87"/>
-        <s v="John Doe 88"/>
-        <s v="Ivan Horvat 89"/>
-        <s v="John Doe 90"/>
-        <s v="Hans Meier 91"/>
-        <s v="Hans Meier 92"/>
-        <s v="John Doe 93"/>
-        <s v="John Doe 94"/>
+        <s v="Fred Nurk 86"/>
+        <s v="Fred Nurk 87"/>
+        <s v="Fred Nurk 88"/>
+        <s v="Hans Meier 89"/>
+        <s v="Ivan Horvat 90"/>
+        <s v="Fred Nurk 91"/>
+        <s v="John Doe 92"/>
+        <s v="Hans Meier 93"/>
+        <s v="Hans Meier 94"/>
         <s v="Fred Nurk 95"/>
         <s v="Ivan Horvat 96"/>
-        <s v="Hans Meier 97"/>
+        <s v="John Doe 97"/>
         <s v="Ivan Horvat 98"/>
         <s v="John Doe 99"/>
         <s v="Hans Meier 100"/>
@@ -642,74 +642,75 @@
     </cacheField>
     <cacheField name="Years of Service">
       <sharedItems count="4">
+        <s v="21-30"/>
+        <s v="1-10"/>
         <s v="over 30"/>
-        <s v="1-10"/>
-        <s v="21-30"/>
         <s v="11-20"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Salaries">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" count="60">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" count="61">
+        <n v="7700"/>
+        <n v="6200"/>
+        <n v="1000"/>
+        <n v="5100"/>
+        <n v="5500"/>
+        <n v="6700"/>
+        <n v="8800"/>
+        <n v="9300"/>
+        <n v="1200"/>
+        <n v="8000"/>
+        <n v="3000"/>
+        <n v="4800"/>
+        <n v="3600"/>
+        <n v="1300"/>
+        <n v="8700"/>
+        <n v="5000"/>
+        <n v="7600"/>
+        <n v="8600"/>
+        <n v="7100"/>
         <n v="9100"/>
         <n v="4200"/>
-        <n v="6700"/>
-        <n v="1000"/>
+        <n v="6800"/>
+        <n v="2000"/>
+        <n v="2100"/>
+        <n v="6500"/>
+        <n v="8200"/>
+        <n v="9000"/>
+        <n v="5200"/>
+        <n v="2400"/>
+        <n v="1100"/>
+        <n v="4700"/>
+        <n v="1600"/>
+        <n v="5800"/>
+        <n v="4100"/>
+        <n v="3900"/>
+        <n v="1400"/>
+        <n v="7400"/>
+        <n v="2900"/>
+        <n v="4400"/>
+        <n v="7200"/>
         <n v="9500"/>
-        <n v="5900"/>
+        <n v="2800"/>
+        <n v="6000"/>
+        <n v="4600"/>
+        <n v="3400"/>
         <n v="4900"/>
-        <n v="8500"/>
-        <n v="7700"/>
-        <n v="6800"/>
-        <n v="9000"/>
-        <n v="3400"/>
-        <n v="3300"/>
-        <n v="4100"/>
-        <n v="5300"/>
-        <n v="3900"/>
-        <n v="3700"/>
-        <n v="1300"/>
-        <n v="9400"/>
-        <n v="5800"/>
-        <n v="6300"/>
-        <n v="7000"/>
-        <n v="4300"/>
-        <n v="2000"/>
-        <n v="7600"/>
+        <n v="7300"/>
+        <n v="8300"/>
+        <n v="8400"/>
+        <n v="3500"/>
+        <n v="8100"/>
+        <n v="1500"/>
+        <n v="9900"/>
+        <n v="2700"/>
+        <n v="7900"/>
+        <n v="2200"/>
+        <n v="9700"/>
+        <n v="6600"/>
+        <n v="7500"/>
+        <n v="3800"/>
         <n v="3200"/>
-        <n v="2800"/>
-        <n v="4700"/>
-        <n v="6200"/>
-        <n v="7800"/>
-        <n v="9600"/>
-        <n v="3600"/>
-        <n v="9800"/>
-        <n v="8100"/>
-        <n v="4800"/>
-        <n v="5600"/>
-        <n v="6900"/>
-        <n v="1600"/>
-        <n v="8900"/>
-        <n v="3800"/>
-        <n v="8600"/>
-        <n v="9200"/>
-        <n v="2200"/>
-        <n v="2500"/>
-        <n v="8200"/>
-        <n v="6100"/>
-        <n v="8000"/>
-        <n v="5700"/>
-        <n v="2900"/>
-        <n v="10000"/>
-        <n v="7300"/>
-        <n v="9900"/>
-        <n v="5000"/>
-        <n v="7500"/>
-        <n v="6500"/>
-        <n v="8800"/>
-        <n v="8700"/>
-        <n v="7900"/>
-        <n v="4500"/>
-        <n v="5500"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -727,596 +728,596 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="3"/>
     <x v="5"/>
-    <x v="3"/>
+    <x v="0"/>
     <x v="5"/>
   </r>
   <r>
     <x v="2"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="1"/>
     <x v="7"/>
     <x v="2"/>
     <x v="7"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
     <x v="4"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="3"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="24"/>
+    <x v="2"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="2"/>
-    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="2"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="3"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="33"/>
+    <x v="3"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="1"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="18"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="21"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="22"/>
-    <x v="2"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="24"/>
-    <x v="3"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="34"/>
+    <x v="0"/>
     <x v="25"/>
-    <x v="2"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="35"/>
+    <x v="0"/>
     <x v="26"/>
-    <x v="2"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="36"/>
+    <x v="3"/>
     <x v="27"/>
-    <x v="1"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="28"/>
-    <x v="2"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="29"/>
-    <x v="2"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="31"/>
-    <x v="3"/>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="33"/>
-    <x v="3"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="34"/>
-    <x v="3"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="35"/>
-    <x v="1"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="36"/>
-    <x v="1"/>
-    <x v="14"/>
   </r>
   <r>
     <x v="4"/>
     <x v="37"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="38"/>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="39"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="41"/>
+    <x v="1"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="43"/>
+    <x v="3"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="2"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="46"/>
+    <x v="2"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="47"/>
+    <x v="1"/>
     <x v="31"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="39"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="40"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="48"/>
+    <x v="1"/>
     <x v="32"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="41"/>
-    <x v="2"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="42"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="49"/>
+    <x v="0"/>
     <x v="33"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="43"/>
-    <x v="3"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="44"/>
-    <x v="1"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="45"/>
-    <x v="1"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="46"/>
-    <x v="0"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="47"/>
-    <x v="2"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="48"/>
-    <x v="1"/>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="49"/>
-    <x v="1"/>
-    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <x v="50"/>
-    <x v="2"/>
-    <x v="18"/>
+    <x v="0"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="53"/>
+    <x v="1"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="54"/>
+    <x v="1"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="51"/>
-    <x v="2"/>
+    <x v="55"/>
+    <x v="0"/>
     <x v="37"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="52"/>
+    <x v="56"/>
     <x v="0"/>
     <x v="38"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="53"/>
-    <x v="3"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="54"/>
+    <x v="4"/>
+    <x v="57"/>
+    <x v="1"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="58"/>
+    <x v="3"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="59"/>
     <x v="0"/>
     <x v="39"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="55"/>
+    <x v="3"/>
+    <x v="60"/>
     <x v="0"/>
     <x v="40"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="56"/>
-    <x v="0"/>
+    <x v="61"/>
+    <x v="3"/>
     <x v="41"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="57"/>
-    <x v="0"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="58"/>
-    <x v="1"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="59"/>
-    <x v="3"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="60"/>
-    <x v="3"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="61"/>
-    <x v="2"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="2"/>
     <x v="62"/>
-    <x v="0"/>
-    <x v="16"/>
+    <x v="3"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <x v="63"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="64"/>
+    <x v="3"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="65"/>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="66"/>
+    <x v="2"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="67"/>
+    <x v="0"/>
     <x v="45"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="68"/>
+    <x v="0"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="69"/>
+    <x v="1"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="70"/>
+    <x v="3"/>
+    <x v="48"/>
+  </r>
+  <r>
     <x v="4"/>
-    <x v="64"/>
-    <x v="1"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="65"/>
-    <x v="3"/>
-    <x v="46"/>
+    <x v="71"/>
+    <x v="3"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="72"/>
+    <x v="3"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="73"/>
+    <x v="2"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="74"/>
+    <x v="3"/>
+    <x v="51"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="66"/>
-    <x v="3"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="67"/>
-    <x v="3"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="68"/>
-    <x v="2"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="69"/>
-    <x v="0"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="70"/>
-    <x v="3"/>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="71"/>
-    <x v="1"/>
-    <x v="50"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="72"/>
-    <x v="0"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="73"/>
-    <x v="1"/>
-    <x v="51"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="74"/>
-    <x v="3"/>
+    <x v="75"/>
+    <x v="0"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="76"/>
+    <x v="2"/>
     <x v="52"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="75"/>
-    <x v="1"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="76"/>
-    <x v="3"/>
-    <x v="45"/>
   </r>
   <r>
     <x v="4"/>
     <x v="77"/>
-    <x v="1"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="4"/>
     <x v="78"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="3"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="79"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="80"/>
+    <x v="1"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="81"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="82"/>
+    <x v="3"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="83"/>
+    <x v="0"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="84"/>
+    <x v="1"/>
     <x v="53"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="80"/>
-    <x v="2"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="81"/>
-    <x v="3"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="82"/>
-    <x v="3"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="83"/>
-    <x v="0"/>
+    <x v="85"/>
+    <x v="1"/>
     <x v="54"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="84"/>
-    <x v="2"/>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="85"/>
-    <x v="3"/>
-    <x v="11"/>
   </r>
   <r>
     <x v="4"/>
     <x v="86"/>
-    <x v="2"/>
-    <x v="27"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="87"/>
+    <x v="1"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="88"/>
+    <x v="3"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="89"/>
+    <x v="0"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="90"/>
+    <x v="3"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="91"/>
+    <x v="2"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="92"/>
+    <x v="2"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="87"/>
-    <x v="2"/>
-    <x v="55"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="88"/>
-    <x v="0"/>
-    <x v="56"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="89"/>
-    <x v="1"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="90"/>
-    <x v="1"/>
-    <x v="57"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="91"/>
-    <x v="3"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="92"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
     <x v="93"/>
-    <x v="2"/>
-    <x v="51"/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="1"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="94"/>
-    <x v="0"/>
-    <x v="58"/>
+    <x v="3"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="4"/>
     <x v="95"/>
-    <x v="3"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="96"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="97"/>
-    <x v="3"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="98"/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="59"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="3"/>
     <x v="99"/>
-    <x v="1"/>
-    <x v="56"/>
+    <x v="0"/>
+    <x v="60"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -1658,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f3824e56-2efe-44a1-a706-e0eb6b25a709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5d9dd298-23cc-49ea-8b4b-ea9801d4ef36}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1671,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ea1caf-a959-444a-a519-8cd6cf35103d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1f4d61f6-5b29-4071-9550-0a2110aab6b7}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1703,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>9100</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75">
@@ -1714,29 +1715,29 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>4200</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4">
-        <v>6700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1745,54 +1746,54 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>9500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>5900</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
       <c r="D8">
-        <v>4900</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1801,138 +1802,138 @@
         <v>13</v>
       </c>
       <c r="D9">
-        <v>8500</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>7700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>6800</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>9000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>3400</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>3300</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>4100</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>5300</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>3900</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>3700</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1941,12 +1942,12 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>1300</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -1955,54 +1956,54 @@
         <v>13</v>
       </c>
       <c r="D20">
-        <v>5900</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>9400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>5800</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>9100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -2011,138 +2012,138 @@
         <v>13</v>
       </c>
       <c r="D24">
-        <v>6300</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>7000</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>4300</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>7000</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>2000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>7600</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>3200</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>2800</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>4700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>6200</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>45</v>
@@ -2151,7 +2152,7 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>7700</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75">
@@ -2162,38 +2163,38 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>3400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>7800</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>9600</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75">
@@ -2204,57 +2205,57 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>5300</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>4900</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>3600</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>6700</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
@@ -2263,166 +2264,166 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>9800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>9400</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>8100</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>4800</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>4800</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>6300</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>9800</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>5600</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>6900</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>9100</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>9400</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>1600</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
@@ -2431,7 +2432,7 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>8900</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75">
@@ -2442,29 +2443,29 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>6300</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>3800</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
         <v>68</v>
@@ -2473,12 +2474,12 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>8600</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
         <v>69</v>
@@ -2487,329 +2488,329 @@
         <v>6</v>
       </c>
       <c r="D58">
-        <v>9200</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
         <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>3800</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60">
-        <v>2200</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>2500</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>8200</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
         <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>9200</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
         <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>3700</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.75">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
         <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>6100</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.75">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>3300</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="12.75">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
         <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>8000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.75">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>7000</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.75">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>5700</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.75">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>7800</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.75">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>2900</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="12.75">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
         <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>10000</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.75">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
         <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D73">
-        <v>7300</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
         <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D74">
-        <v>5700</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.75">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
         <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75">
-        <v>9900</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12.75">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12.75">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>4100</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="12.75">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
         <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D78">
-        <v>6100</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="12.75">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
         <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>1300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12.75">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
         <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D80">
-        <v>9500</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12.75">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
         <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D81">
-        <v>7500</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12.75">
@@ -2820,43 +2821,43 @@
         <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>2000</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12.75">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
         <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>8100</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="12.75">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
         <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D84">
-        <v>7600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="12.75">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
         <v>96</v>
@@ -2865,180 +2866,180 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <v>6500</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="12.75">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>7500</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="12.75">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
         <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>3400</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="12.75">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
         <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>4700</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="12.75">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>8800</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="12.75">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
         <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D90">
-        <v>8700</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12.75">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
         <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>6300</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="12.75">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
         <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>7900</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="12.75">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>7000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="12.75">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
         <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94">
-        <v>4200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="12.75">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
         <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>9900</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="12.75">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
         <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D96">
-        <v>4500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="12.75">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
         <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>3400</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="12.75">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
         <v>109</v>
@@ -3047,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="D98">
-        <v>9100</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="12.75">
@@ -3058,38 +3059,38 @@
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>8200</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="12.75">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
         <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D100">
-        <v>5500</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="12.75">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
         <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D101">
-        <v>8700</v>
+        <v>3200</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80a963b0-d36f-46df-8dcc-e9e122bcfda3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191de7f6-98f0-4915-9514-3e6149092593}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -3112,7 +3113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3034de34-e244-44fc-8bd4-0391c851723d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483a9bc7-2c12-46cf-a13f-d629a204db8d}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
